--- a/BugReports_M11.xlsx
+++ b/BugReports_M11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olha_Harmash\HOME TASK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBADE6F3-0881-45CF-ACEA-AB8CEA33B562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1056B30-3D2B-49EE-B885-1AA53EE52CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -623,6 +623,9 @@
   </si>
   <si>
     <t xml:space="preserve">environment </t>
+  </si>
+  <si>
+    <t>rarely</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562D00AD-2576-4A39-8D86-79BF34DB0C62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -757,23 +760,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -804,7 +794,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160BDD5A-181D-4762-B4AC-95E3743980E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -825,23 +815,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -872,7 +849,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABF8483-A14C-46FF-A6AA-28B1A462E30D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -893,23 +870,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -940,7 +904,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BABBAC6-14B0-4817-A3A8-1A69B0329DD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -961,23 +925,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -992,13 +943,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>238125</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>114299</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1333500</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>935830</xdr:rowOff>
+          <xdr:rowOff>933450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1008,7 +959,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9623AD86-90EF-4559-A9AA-73E8516005C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1029,23 +980,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1321,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E4A858-28AE-4214-8345-084118977991}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1511,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
